--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>SKU</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>DESCRIPCION DETALLADA</t>
-  </si>
-  <si>
-    <t>PRECIO SIN IVA</t>
   </si>
   <si>
     <t>PRECIO CON IVA</t>
@@ -168,6 +165,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -215,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,7 +250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,11 +470,10 @@
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,45 +484,38 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>7758.620689655173</v>
-      </c>
-      <c r="H2" s="2">
-        <f>G2+(G2*0.16)</f>
         <v>9000</v>
       </c>
     </row>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>SKU</t>
   </si>
@@ -30,9 +30,6 @@
     <t>PRECIO CON IVA</t>
   </si>
   <si>
-    <t>49-7083</t>
-  </si>
-  <si>
     <t>SQUADRON, LED ADVENTURE BIKE KIT</t>
   </si>
   <si>
@@ -48,7 +45,43 @@
     <t>CATEGORIA</t>
   </si>
   <si>
-    <t>Custom,Doble Propósito4</t>
+    <t>Squadron</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>497084-N-CH</t>
+  </si>
+  <si>
+    <t>497085-N-G</t>
+  </si>
+  <si>
+    <t>Chica</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>Custom,Doble Propósito</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>TALLA</t>
+  </si>
+  <si>
+    <t>SKU PADRE</t>
+  </si>
+  <si>
+    <t>LED ADVENTURE BIKE KIT CHICA</t>
+  </si>
+  <si>
+    <t>LED ADVENTURE BIKE KIT GRANDE</t>
   </si>
 </sst>
 </file>
@@ -59,7 +92,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,45 +107,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -122,16 +131,22 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -157,8 +172,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -170,6 +185,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:K4" totalsRowShown="0">
+  <autoFilter ref="A1:K4"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="SKU" dataDxfId="1"/>
+    <tableColumn id="2" name="PRODUCTO"/>
+    <tableColumn id="3" name="DESCRIPCION DETALLADA"/>
+    <tableColumn id="4" name="DESCRIPCION CORTA"/>
+    <tableColumn id="5" name="CATEGORIA"/>
+    <tableColumn id="6" name="MARCA"/>
+    <tableColumn id="7" name="COLOR"/>
+    <tableColumn id="8" name="TALLA"/>
+    <tableColumn id="9" name="SKU PADRE"/>
+    <tableColumn id="10" name="STOCK"/>
+    <tableColumn id="11" name="PRECIO CON IVA" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,21 +494,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="34.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,44 +519,127 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>497083</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>497083</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9000</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>497083</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
         <v>9000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>SKU</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>LED ADVENTURE BIKE KIT GRANDE</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>UBICACIÓN</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDOR A</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDOR C</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDOR B</t>
   </si>
 </sst>
 </file>
@@ -188,9 +203,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:K4" totalsRowShown="0">
-  <autoFilter ref="A1:K4"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:O4" totalsRowShown="0">
+  <autoFilter ref="A1:O4"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="SKU" dataDxfId="1"/>
     <tableColumn id="2" name="PRODUCTO"/>
     <tableColumn id="3" name="DESCRIPCION DETALLADA"/>
@@ -201,6 +216,10 @@
     <tableColumn id="8" name="TALLA"/>
     <tableColumn id="9" name="SKU PADRE"/>
     <tableColumn id="10" name="STOCK"/>
+    <tableColumn id="12" name="UBICACIÓN"/>
+    <tableColumn id="13" name="DISTRIBUIDOR A"/>
+    <tableColumn id="14" name="DISTRIBUIDOR B"/>
+    <tableColumn id="15" name="DISTRIBUIDOR C"/>
     <tableColumn id="11" name="PRECIO CON IVA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -494,21 +513,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="34.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="5" max="14" width="34.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,10 +559,22 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>497083</v>
       </c>
@@ -562,9 +593,9 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -595,11 +626,14 @@
       <c r="J3">
         <v>11</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="1">
         <v>9000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -630,7 +664,10 @@
       <c r="J4">
         <v>10</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1">
         <v>9000</v>
       </c>
     </row>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>SKU</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>DISTRIBUIDOR B</t>
+  </si>
+  <si>
+    <t>LINEA</t>
   </si>
 </sst>
 </file>
@@ -203,15 +206,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:O4" totalsRowShown="0">
-  <autoFilter ref="A1:O4"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:P4" totalsRowShown="0">
+  <autoFilter ref="A1:P4"/>
+  <tableColumns count="16">
     <tableColumn id="1" name="SKU" dataDxfId="1"/>
     <tableColumn id="2" name="PRODUCTO"/>
     <tableColumn id="3" name="DESCRIPCION DETALLADA"/>
     <tableColumn id="4" name="DESCRIPCION CORTA"/>
     <tableColumn id="5" name="CATEGORIA"/>
     <tableColumn id="6" name="MARCA"/>
+    <tableColumn id="16" name="LINEA"/>
     <tableColumn id="7" name="COLOR"/>
     <tableColumn id="8" name="TALLA"/>
     <tableColumn id="9" name="SKU PADRE"/>
@@ -513,21 +517,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="34.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="5" max="15" width="34.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,34 +551,37 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>497083</v>
       </c>
@@ -593,9 +600,9 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -614,26 +621,26 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>497083</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>9000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -652,22 +659,22 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>497083</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>9000</v>
       </c>
     </row>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>SKU</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>LINEA</t>
+  </si>
+  <si>
+    <t>SQUADRON</t>
   </si>
 </sst>
 </file>
@@ -213,8 +216,8 @@
     <tableColumn id="2" name="PRODUCTO"/>
     <tableColumn id="3" name="DESCRIPCION DETALLADA"/>
     <tableColumn id="4" name="DESCRIPCION CORTA"/>
+    <tableColumn id="6" name="MARCA"/>
     <tableColumn id="5" name="CATEGORIA"/>
-    <tableColumn id="6" name="MARCA"/>
     <tableColumn id="16" name="LINEA"/>
     <tableColumn id="7" name="COLOR"/>
     <tableColumn id="8" name="TALLA"/>
@@ -519,16 +522,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="34.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="5" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="34.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -545,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>27</v>
@@ -595,10 +600,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="G2" t="s">
+        <v>28</v>
       </c>
       <c r="P2" s="1"/>
     </row>
@@ -616,10 +624,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="G3" t="s">
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -654,10 +665,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="G4" t="s">
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,6 +647,15 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
+      <c r="M3" s="1">
+        <v>9000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9000</v>
+      </c>
+      <c r="O3" s="1">
+        <v>9000</v>
+      </c>
       <c r="P3" s="1">
         <v>9000</v>
       </c>
@@ -687,6 +696,15 @@
       </c>
       <c r="L4" t="s">
         <v>22</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9000</v>
+      </c>
+      <c r="N4" s="1">
+        <v>9000</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9000</v>
       </c>
       <c r="P4" s="1">
         <v>9000</v>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>SKU</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>SQUADRON</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
   </si>
 </sst>
 </file>
@@ -209,15 +215,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:P4" totalsRowShown="0">
-  <autoFilter ref="A1:P4"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:Q4" totalsRowShown="0">
+  <autoFilter ref="A1:Q4"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="SKU" dataDxfId="1"/>
     <tableColumn id="2" name="PRODUCTO"/>
     <tableColumn id="3" name="DESCRIPCION DETALLADA"/>
     <tableColumn id="4" name="DESCRIPCION CORTA"/>
     <tableColumn id="6" name="MARCA"/>
     <tableColumn id="5" name="CATEGORIA"/>
+    <tableColumn id="18" name="TIPO"/>
     <tableColumn id="16" name="LINEA"/>
     <tableColumn id="7" name="COLOR"/>
     <tableColumn id="8" name="TALLA"/>
@@ -520,23 +527,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="34.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="5" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="34.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,37 +563,40 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>497083</v>
       </c>
@@ -606,11 +616,14 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -630,25 +643,25 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>497083</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>22</v>
-      </c>
-      <c r="M3" s="1">
-        <v>9000</v>
       </c>
       <c r="N3" s="1">
         <v>9000</v>
@@ -659,8 +672,11 @@
       <c r="P3" s="1">
         <v>9000</v>
       </c>
+      <c r="Q3" s="1">
+        <v>9000</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -680,25 +696,25 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>497083</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>22</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9000</v>
       </c>
       <c r="N4" s="1">
         <v>9000</v>
@@ -707,6 +723,9 @@
         <v>9000</v>
       </c>
       <c r="P4" s="1">
+        <v>9000</v>
+      </c>
+      <c r="Q4" s="1">
         <v>9000</v>
       </c>
     </row>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>SKU</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Seguridad</t>
+  </si>
+  <si>
+    <t>GENERO</t>
+  </si>
+  <si>
+    <t>MOTOCICLETA</t>
   </si>
 </sst>
 </file>
@@ -215,9 +221,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:Q4" totalsRowShown="0">
-  <autoFilter ref="A1:Q4"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:R4" totalsRowShown="0">
+  <autoFilter ref="A1:R4"/>
+  <tableColumns count="18">
     <tableColumn id="1" name="SKU" dataDxfId="1"/>
     <tableColumn id="2" name="PRODUCTO"/>
     <tableColumn id="3" name="DESCRIPCION DETALLADA"/>
@@ -226,6 +232,7 @@
     <tableColumn id="5" name="CATEGORIA"/>
     <tableColumn id="18" name="TIPO"/>
     <tableColumn id="16" name="LINEA"/>
+    <tableColumn id="17" name="GENERO"/>
     <tableColumn id="7" name="COLOR"/>
     <tableColumn id="8" name="TALLA"/>
     <tableColumn id="9" name="SKU PADRE"/>
@@ -527,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,11 +546,12 @@
     <col min="2" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="34.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="34.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="34.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,34 +577,37 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>497083</v>
       </c>
@@ -621,9 +632,12 @@
       <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -649,22 +663,22 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>497083</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
-      </c>
-      <c r="N3" s="1">
-        <v>9000</v>
       </c>
       <c r="O3" s="1">
         <v>9000</v>
@@ -675,8 +689,11 @@
       <c r="Q3" s="1">
         <v>9000</v>
       </c>
+      <c r="R3" s="1">
+        <v>9000</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -702,22 +719,22 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>497083</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>22</v>
-      </c>
-      <c r="N4" s="1">
-        <v>9000</v>
       </c>
       <c r="O4" s="1">
         <v>9000</v>
@@ -726,6 +743,9 @@
         <v>9000</v>
       </c>
       <c r="Q4" s="1">
+        <v>9000</v>
+      </c>
+      <c r="R4" s="1">
         <v>9000</v>
       </c>
     </row>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,15 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>SKU</t>
   </si>
@@ -48,15 +51,6 @@
     <t>Squadron</t>
   </si>
   <si>
-    <t>Negro</t>
-  </si>
-  <si>
-    <t>497084-N-CH</t>
-  </si>
-  <si>
-    <t>497085-N-G</t>
-  </si>
-  <si>
     <t>Chica</t>
   </si>
   <si>
@@ -115,6 +109,18 @@
   </si>
   <si>
     <t>MOTOCICLETA</t>
+  </si>
+  <si>
+    <t>PRECIO SIN IVA</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>4970845-A-CH</t>
+  </si>
+  <si>
+    <t>4970856-A-G</t>
   </si>
 </sst>
 </file>
@@ -125,7 +131,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +142,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,18 +178,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -220,10 +243,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+      <sheetName val="Hoja3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:R4" totalsRowShown="0">
-  <autoFilter ref="A1:R4"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:S4" totalsRowShown="0">
+  <autoFilter ref="A1:S4"/>
+  <tableColumns count="19">
     <tableColumn id="1" name="SKU" dataDxfId="1"/>
     <tableColumn id="2" name="PRODUCTO"/>
     <tableColumn id="3" name="DESCRIPCION DETALLADA"/>
@@ -238,9 +278,16 @@
     <tableColumn id="9" name="SKU PADRE"/>
     <tableColumn id="10" name="STOCK"/>
     <tableColumn id="12" name="UBICACIÓN"/>
-    <tableColumn id="13" name="DISTRIBUIDOR A"/>
-    <tableColumn id="14" name="DISTRIBUIDOR B"/>
-    <tableColumn id="15" name="DISTRIBUIDOR C"/>
+    <tableColumn id="19" name="PRECIO SIN IVA"/>
+    <tableColumn id="13" name="DISTRIBUIDOR A">
+      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.65</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="DISTRIBUIDOR B">
+      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="DISTRIBUIDOR C">
+      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.5</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="11" name="PRECIO CON IVA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -290,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,11 +594,11 @@
     <col min="5" max="7" width="34.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="34.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="10" max="19" width="34.5703125" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,49 +612,52 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
       </c>
       <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
       <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>497083</v>
       </c>
@@ -624,25 +674,29 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -654,22 +708,22 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
       </c>
       <c r="L3">
         <v>497083</v>
@@ -678,27 +732,34 @@
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O3" s="1">
         <v>9000</v>
       </c>
-      <c r="P3" s="1">
-        <v>9000</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>9000</v>
-      </c>
-      <c r="R3" s="1">
-        <v>9000</v>
+      <c r="P3" s="3">
+        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.65</f>
+        <v>5850</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.6</f>
+        <v>5400</v>
+      </c>
+      <c r="R3" s="3">
+        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.5</f>
+        <v>4500</v>
+      </c>
+      <c r="S3" s="1">
+        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.85</f>
+        <v>7650</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -710,22 +771,22 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4">
         <v>497083</v>
@@ -734,24 +795,34 @@
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O4" s="1">
-        <v>9000</v>
-      </c>
-      <c r="P4" s="1">
-        <v>9000</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>9000</v>
-      </c>
-      <c r="R4" s="1">
-        <v>9000</v>
+        <v>9001</v>
+      </c>
+      <c r="P4" s="3">
+        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.65</f>
+        <v>5850.6500000000005</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.6</f>
+        <v>5400.5999999999995</v>
+      </c>
+      <c r="R4" s="3">
+        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.5</f>
+        <v>4500.5</v>
+      </c>
+      <c r="S4" s="1">
+        <f>+[1]!Tabla1[[#This Row],[PRECIO SIN IVA]]*1.16</f>
+        <v>4519.9979999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="P3:R3" formula="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -250,19 +250,21 @@
       <sheetName val="Hoja1"/>
       <sheetName val="Hoja2"/>
       <sheetName val="Hoja3"/>
+      <sheetName val="Plantilla Prueba"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:S4" totalsRowShown="0">
-  <autoFilter ref="A1:S4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:S5" totalsRowShown="0">
+  <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
     <tableColumn id="1" name="SKU" dataDxfId="1"/>
     <tableColumn id="2" name="PRODUCTO"/>
@@ -581,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +818,15 @@
         <f>+[1]!Tabla1[[#This Row],[PRECIO SIN IVA]]*1.16</f>
         <v>4519.9979999999996</v>
       </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,15 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>SKU</t>
   </si>
@@ -76,12 +73,6 @@
   </si>
   <si>
     <t>LED ADVENTURE BIKE KIT GRANDE</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>UBICACIÓN</t>
   </si>
   <si>
     <t>DISTRIBUIDOR A</t>
@@ -131,7 +122,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,20 +133,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,30 +155,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -228,8 +211,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -243,54 +226,36 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Hoja3"/>
-      <sheetName val="Plantilla Prueba"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:S5" totalsRowShown="0">
-  <autoFilter ref="A1:S5"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="SKU" dataDxfId="1"/>
-    <tableColumn id="2" name="PRODUCTO"/>
-    <tableColumn id="3" name="DESCRIPCION DETALLADA"/>
-    <tableColumn id="4" name="DESCRIPCION CORTA"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:R4" totalsRowShown="0">
+  <autoFilter ref="A1:R4"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="SKU PADRE"/>
+    <tableColumn id="2" name="SKU" dataDxfId="4"/>
+    <tableColumn id="3" name="PRODUCTO"/>
+    <tableColumn id="4" name="DESCRIPCION DETALLADA"/>
+    <tableColumn id="5" name="DESCRIPCION CORTA"/>
     <tableColumn id="6" name="MARCA"/>
-    <tableColumn id="5" name="CATEGORIA"/>
-    <tableColumn id="18" name="TIPO"/>
-    <tableColumn id="16" name="LINEA"/>
-    <tableColumn id="17" name="GENERO"/>
-    <tableColumn id="7" name="COLOR"/>
-    <tableColumn id="8" name="TALLA"/>
-    <tableColumn id="9" name="SKU PADRE"/>
-    <tableColumn id="10" name="STOCK"/>
-    <tableColumn id="12" name="UBICACIÓN"/>
-    <tableColumn id="19" name="PRECIO SIN IVA"/>
-    <tableColumn id="13" name="DISTRIBUIDOR A">
-      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.65</calculatedColumnFormula>
+    <tableColumn id="7" name="CATEGORIA"/>
+    <tableColumn id="8" name="TIPO"/>
+    <tableColumn id="9" name="LINEA"/>
+    <tableColumn id="10" name="GENERO"/>
+    <tableColumn id="11" name="COLOR"/>
+    <tableColumn id="12" name="TALLA"/>
+    <tableColumn id="13" name="STOCK"/>
+    <tableColumn id="14" name="PRECIO SIN IVA"/>
+    <tableColumn id="15" name="DISTRIBUIDOR A" dataDxfId="3">
+      <calculatedColumnFormula>N2*0.65</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="DISTRIBUIDOR B">
-      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.6</calculatedColumnFormula>
+    <tableColumn id="16" name="DISTRIBUIDOR B" dataDxfId="2">
+      <calculatedColumnFormula>N2*0.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DISTRIBUIDOR C">
-      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.5</calculatedColumnFormula>
+    <tableColumn id="17" name="DISTRIBUIDOR C" dataDxfId="1">
+      <calculatedColumnFormula>N2*0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="PRECIO CON IVA" dataDxfId="0"/>
+    <tableColumn id="18" name="PRECIO CON IVA" dataDxfId="0">
+      <calculatedColumnFormula>N2+(N2*0.16)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -583,257 +548,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:S5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="34.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="34.5703125" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="34.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="34.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P1" t="s">
         <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>497083</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1">
+        <f>N2*0.65</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <f>N2*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>N2*0.85</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>N2+(N2*0.16)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>497083</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>10</v>
-      </c>
-      <c r="L3">
-        <v>497083</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
-        <v>19</v>
+      <c r="N3">
+        <v>9000</v>
       </c>
       <c r="O3" s="1">
-        <v>9000</v>
-      </c>
-      <c r="P3" s="3">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.65</f>
+        <f t="shared" ref="O3:O4" si="0">N3*0.65</f>
         <v>5850</v>
       </c>
-      <c r="Q3" s="3">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.6</f>
-        <v>5400</v>
-      </c>
-      <c r="R3" s="3">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.5</f>
-        <v>4500</v>
-      </c>
-      <c r="S3" s="1">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.85</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P4" si="1">N3*0.7</f>
+        <v>6300</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q4" si="2">N3*0.85</f>
         <v>7650</v>
       </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R4" si="3">N3+(N3*0.16)</f>
+        <v>10440</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>497083</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
-      </c>
-      <c r="L4">
-        <v>497083</v>
       </c>
       <c r="M4">
         <v>10</v>
       </c>
-      <c r="N4" t="s">
-        <v>19</v>
+      <c r="N4">
+        <v>9001</v>
       </c>
       <c r="O4" s="1">
-        <v>9001</v>
-      </c>
-      <c r="P4" s="3">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.65</f>
+        <f t="shared" si="0"/>
         <v>5850.6500000000005</v>
       </c>
-      <c r="Q4" s="3">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.6</f>
-        <v>5400.5999999999995</v>
-      </c>
-      <c r="R4" s="3">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.5</f>
-        <v>4500.5</v>
-      </c>
-      <c r="S4" s="1">
-        <f>+[1]!Tabla1[[#This Row],[PRECIO SIN IVA]]*1.16</f>
-        <v>4519.9979999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="P4" s="1">
+        <f t="shared" si="1"/>
+        <v>6300.7</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="2"/>
+        <v>7650.8499999999995</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="3"/>
+        <v>10441.16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="P3:R3" formula="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/excel/Plantilla.xlsx
+++ b/excel/Plantilla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,10 @@
     <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -211,8 +214,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -231,7 +234,7 @@
   <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="SKU PADRE"/>
-    <tableColumn id="2" name="SKU" dataDxfId="4"/>
+    <tableColumn id="2" name="SKU" dataDxfId="5"/>
     <tableColumn id="3" name="PRODUCTO"/>
     <tableColumn id="4" name="DESCRIPCION DETALLADA"/>
     <tableColumn id="5" name="DESCRIPCION CORTA"/>
@@ -243,17 +246,17 @@
     <tableColumn id="11" name="COLOR"/>
     <tableColumn id="12" name="TALLA"/>
     <tableColumn id="13" name="STOCK"/>
-    <tableColumn id="14" name="PRECIO SIN IVA"/>
-    <tableColumn id="15" name="DISTRIBUIDOR A" dataDxfId="3">
+    <tableColumn id="14" name="PRECIO SIN IVA" dataDxfId="0"/>
+    <tableColumn id="15" name="DISTRIBUIDOR A" dataDxfId="4">
       <calculatedColumnFormula>N2*0.65</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="DISTRIBUIDOR B" dataDxfId="2">
+    <tableColumn id="16" name="DISTRIBUIDOR B" dataDxfId="3">
       <calculatedColumnFormula>N2*0.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="DISTRIBUIDOR C" dataDxfId="1">
+    <tableColumn id="17" name="DISTRIBUIDOR C" dataDxfId="2">
       <calculatedColumnFormula>N2*0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="PRECIO CON IVA" dataDxfId="0">
+    <tableColumn id="18" name="PRECIO CON IVA" dataDxfId="1">
       <calculatedColumnFormula>N2+(N2*0.16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -551,7 +554,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +653,7 @@
       <c r="J2" t="s">
         <v>27</v>
       </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1">
         <f>N2*0.65</f>
         <v>0</v>
@@ -707,7 +711,7 @@
       <c r="M3">
         <v>11</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>9000</v>
       </c>
       <c r="O3" s="1">
@@ -767,7 +771,7 @@
       <c r="M4">
         <v>10</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>9001</v>
       </c>
       <c r="O4" s="1">
